--- a/_output/AM/UI Results/UI Result - u4(b) VS p10(a).xlsx
+++ b/_output/AM/UI Results/UI Result - u4(b) VS p10(a).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -35,6 +41,18 @@
   </si>
   <si>
     <t>p11</t>
+  </si>
+  <si>
+    <t>[768 188] ; [707  45]</t>
+  </si>
+  <si>
+    <t>[734 245] ; [632 122]</t>
+  </si>
+  <si>
+    <t>[825.58548009 130.41451991] ; [649.41451991 102.58548009]</t>
+  </si>
+  <si>
+    <t>[771.67570687 207.32429313] ; [594.32429313 159.67570687]</t>
   </si>
 </sst>
 </file>
@@ -392,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,13 +432,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -431,16 +455,22 @@
       <c r="E2">
         <v>66.875325</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -451,7 +481,13 @@
       <c r="E3">
         <v>19.964007</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
